--- a/pdb_union.xlsx
+++ b/pdb_union.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Documents/GitHub/capstone_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4DB422-2AE1-A34D-B589-2CB4A1B58F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563136A1-713A-AD4D-B970-9FEDCA768FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="500" windowWidth="26840" windowHeight="14340" xr2:uid="{ACACB710-B81B-5B42-A0F6-41D0740FCB52}"/>
+    <workbookView xWindow="1960" yWindow="500" windowWidth="26840" windowHeight="14340" xr2:uid="{ACACB710-B81B-5B42-A0F6-41D0740FCB52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Nilai</t>
   </si>
   <si>
-    <t>PDB</t>
-  </si>
-  <si>
     <t>Inventory</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   <si>
     <t>Ekspor - Impor</t>
   </si>
+  <si>
+    <t>Jenis</t>
+  </si>
 </sst>
 </file>
 
@@ -71,7 +71,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -113,7 +113,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -434,7 +434,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -462,7 +462,7 @@
         <v>82500.23</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -473,7 +473,7 @@
         <v>81870</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -484,7 +484,7 @@
         <v>132190.89000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -495,7 +495,7 @@
         <v>89547.23</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -506,7 +506,7 @@
         <v>100038.56</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -517,7 +517,7 @@
         <v>106357.56</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -528,7 +528,7 @@
         <v>167645.64000000001</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -539,7 +539,7 @@
         <v>117289.4</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -550,7 +550,7 @@
         <v>120726.55</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -561,7 +561,7 @@
         <v>165609.51</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -572,7 +572,7 @@
         <v>50546.33</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>66004.87</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -594,7 +594,7 @@
         <v>-7509.07</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -605,7 +605,7 @@
         <v>-57708</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -616,7 +616,7 @@
         <v>61381.02</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>56016.23</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -638,7 +638,7 @@
         <v>8033.24</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -649,7 +649,7 @@
         <v>-62721.4</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
         <v>60312.02</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -671,7 +671,7 @@
         <v>53462.39</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -682,7 +682,7 @@
         <v>32635.16</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -693,7 +693,7 @@
         <v>32340.5</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -704,7 +704,7 @@
         <v>32600.18</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -715,7 +715,7 @@
         <v>32672.83</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -726,7 +726,7 @@
         <v>31429.360000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>33632.06</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -748,7 +748,7 @@
         <v>33508.22</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>33747.120000000003</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -770,7 +770,7 @@
         <v>33267.61</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>35328.54</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -792,7 +792,7 @@
         <v>159592.51</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -803,7 +803,7 @@
         <v>194973.89</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -814,7 +814,7 @@
         <v>228134.79</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>290072.87</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -836,7 +836,7 @@
         <v>163658.63</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
         <v>210680.43</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -858,7 +858,7 @@
         <v>229541.09</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>305293.09999999998</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -880,7 +880,7 @@
         <v>151241.42000000001</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -891,7 +891,7 @@
         <v>199641.49</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -902,7 +902,7 @@
         <v>1483329.23</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -913,7 +913,7 @@
         <v>1386530.18</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -924,7 +924,7 @@
         <v>1451572.68</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
         <v>1458791.35</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -946,7 +946,7 @@
         <v>1450477.95</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -957,7 +957,7 @@
         <v>1469151.77</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -968,7 +968,7 @@
         <v>1466420.51</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>1510647.2</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -990,7 +990,7 @@
         <v>1513456.49</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1001,7 +1001,7 @@
         <v>1550035</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>876325.83</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1023,7 +1023,7 @@
         <v>791207.14</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1034,7 +1034,7 @@
         <v>857689.27</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
         <v>893959.37</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1056,7 +1056,7 @@
         <v>874465.48</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
         <v>850707.02</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1078,7 +1078,7 @@
         <v>889950.49</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>934095.81</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1100,7 +1100,7 @@
         <v>910202.33</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1111,7 +1111,7 @@
         <v>876855.97</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
